--- a/Raw_Data/LA_level/Children_Outcomes/Original_data_locations.xlsx
+++ b/Raw_Data/LA_level/Children_Outcomes/Original_data_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/wolf6040_ox_ac_uk/Documents/GitHub/childrens_social_care_data/Raw_Data/LA_level/Children_Outcomes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{6B3E9097-3A80-4D12-B9E9-D58F2FD1A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA53558-C213-400A-9E9B-6EAEB4755D2D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{6B3E9097-3A80-4D12-B9E9-D58F2FD1A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5A76AC3-DB44-4CB0-8133-A6F0EFBF1A0A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37286F44-BCAD-4990-BFFA-A6568C5B018B}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{37286F44-BCAD-4990-BFFA-A6568C5B018B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,18 +62,6 @@
     <t>2012_underlying</t>
   </si>
   <si>
-    <t>2013_underlying</t>
-  </si>
-  <si>
-    <t>2014_underlying</t>
-  </si>
-  <si>
-    <t>2015_underlying</t>
-  </si>
-  <si>
-    <t>2016_underlying</t>
-  </si>
-  <si>
     <t>2017_underlying</t>
   </si>
   <si>
@@ -95,27 +83,15 @@
     <t>https://www.gov.uk/government/statistics/outcomes-for-children-looked-after-by-local-authorities-in-england-31-march-2012</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/298634/Underlying_data_SFR50_2013.zip</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/outcomes-for-children-looked-after-by-las-in-england</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/416457/Underlying_data_SFR49_2014.zip</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/outcomes-for-children-looked-after-by-local-authorities</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/509959/SFR11_2016_Underlying_Data.zip</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/outcomes-for-children-looked-after-by-las-31-march-2015</t>
   </si>
   <si>
-    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/613310/SFR12_2017_Underlying_Data.zip</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistics/outcomes-for-children-looked-after-by-las-31-march-2016</t>
   </si>
   <si>
@@ -135,6 +111,30 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/878714/Underlying_data_tables_CLA_2019_UD.zip</t>
+  </si>
+  <si>
+    <t>2013_LA</t>
+  </si>
+  <si>
+    <t>2014_LA</t>
+  </si>
+  <si>
+    <t>2015_LA</t>
+  </si>
+  <si>
+    <t>2016_LA</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/298625/SFR50_2013_LATablesA.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/416940/SFR49_2014_LATables.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/509954/SFR11_2016_MainTables.xlsx</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/601990/SFR12_2017_LA_Tables.xlsx</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,10 +521,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -532,87 +532,87 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Raw_Data/LA_level/Children_Outcomes/Original_data_locations.xlsx
+++ b/Raw_Data/LA_level/Children_Outcomes/Original_data_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/wolf6040_ox_ac_uk/Documents/GitHub/childrens_social_care_data/Raw_Data/LA_level/Children_Outcomes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{6B3E9097-3A80-4D12-B9E9-D58F2FD1A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5A76AC3-DB44-4CB0-8133-A6F0EFBF1A0A}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{6B3E9097-3A80-4D12-B9E9-D58F2FD1A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B0E28E7-8E7E-4AB5-B901-FE12856BB07B}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{37286F44-BCAD-4990-BFFA-A6568C5B018B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Data</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/601990/SFR12_2017_LA_Tables.xlsx</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>personally_converted_to_csv</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -486,15 +495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BF24B-5C9A-40CC-8837-48D586C4985C}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +516,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -515,8 +530,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -526,8 +544,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -537,8 +558,11 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -548,8 +572,11 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -559,8 +586,11 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -570,8 +600,11 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -581,8 +614,11 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -592,8 +628,11 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -603,8 +642,11 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -613,6 +655,9 @@
       </c>
       <c r="C11" t="s">
         <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Raw_Data/LA_level/Children_Outcomes/Original_data_locations.xlsx
+++ b/Raw_Data/LA_level/Children_Outcomes/Original_data_locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/wolf6040_ox_ac_uk/Documents/GitHub/childrens_social_care_data/Raw_Data/LA_level/Children_Outcomes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{6B3E9097-3A80-4D12-B9E9-D58F2FD1A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B0E28E7-8E7E-4AB5-B901-FE12856BB07B}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{6B3E9097-3A80-4D12-B9E9-D58F2FD1A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3DA0CC-E325-4AEC-9041-E355B675B97D}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{37286F44-BCAD-4990-BFFA-A6568C5B018B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Data</t>
   </si>
@@ -144,13 +144,34 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>https://explore-education-statistics.service.gov.uk/data-tables/permalink/391fe436-b782-477f-dddf-08db8e99978c</t>
+  </si>
+  <si>
+    <t>Post_2016_files</t>
+  </si>
+  <si>
+    <t>Absence</t>
+  </si>
+  <si>
+    <t>Exclusion</t>
+  </si>
+  <si>
+    <t>https://explore-education-statistics.service.gov.uk/data-tables/permalink/1646772a-3119-47d9-dde1-08db8e99978c</t>
+  </si>
+  <si>
+    <t>Key Stage 2</t>
+  </si>
+  <si>
+    <t>https://explore-education-statistics.service.gov.uk/data-tables/permalink/0c810b31-b738-4a9a-d150-08db93562124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +179,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,8 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BF24B-5C9A-40CC-8837-48D586C4985C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,21 +545,23 @@
     <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -534,7 +575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -548,7 +589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -562,7 +603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -576,7 +617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -590,7 +631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -604,7 +645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -618,7 +659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -632,7 +673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -646,7 +687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -660,7 +701,45 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Raw_Data/LA_level/Children_Outcomes/Original_data_locations.xlsx
+++ b/Raw_Data/LA_level/Children_Outcomes/Original_data_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/wolf6040_ox_ac_uk/Documents/GitHub/childrens_social_care_data/Raw_Data/LA_level/Children_Outcomes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{6B3E9097-3A80-4D12-B9E9-D58F2FD1A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3DA0CC-E325-4AEC-9041-E355B675B97D}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{6B3E9097-3A80-4D12-B9E9-D58F2FD1A6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1855E69A-C0A8-479C-A8B0-62008FDA530F}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{37286F44-BCAD-4990-BFFA-A6568C5B018B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Data</t>
   </si>
@@ -146,41 +146,21 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>https://explore-education-statistics.service.gov.uk/data-tables/permalink/391fe436-b782-477f-dddf-08db8e99978c</t>
-  </si>
-  <si>
-    <t>Post_2016_files</t>
-  </si>
-  <si>
-    <t>Absence</t>
-  </si>
-  <si>
-    <t>Exclusion</t>
-  </si>
-  <si>
-    <t>https://explore-education-statistics.service.gov.uk/data-tables/permalink/1646772a-3119-47d9-dde1-08db8e99978c</t>
-  </si>
-  <si>
-    <t>Key Stage 2</t>
-  </si>
-  <si>
-    <t>https://explore-education-statistics.service.gov.uk/data-tables/permalink/0c810b31-b738-4a9a-d150-08db93562124</t>
+    <t>post_2016</t>
+  </si>
+  <si>
+    <t>https://explore-education-statistics.service.gov.uk/find-statistics/outcomes-for-children-in-need-including-children-looked-after-by-local-authorities-in-england/2022</t>
+  </si>
+  <si>
+    <t>https://content.explore-education-statistics.service.gov.uk/api/releases/05baf7db-c60b-4022-80f8-2f600a802a23/files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -214,12 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BF24B-5C9A-40CC-8837-48D586C4985C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,43 +679,20 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
+      <c r="D12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:F12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
